--- a/documentatie/BOM_2e_bestelronde.xlsx
+++ b/documentatie/BOM_2e_bestelronde.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vd_sa\OneDrive\Documenten\KuLeuven\ba3\bachelorproef\TrappenMaar\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Documents\GitHub\TrappenMaar\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70983B0A-7805-4911-B91F-BD2DFD68B37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153FBF4-CD28-4057-BE31-782CBAE6DE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="57600" windowHeight="15375" xr2:uid="{9C64B54D-E0A4-4257-B981-A84DF05D93DA}"/>
+    <workbookView xWindow="-9924" yWindow="3096" windowWidth="18336" windowHeight="8964" xr2:uid="{9C64B54D-E0A4-4257-B981-A84DF05D93DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>BOM 2e aankoop</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>https://www.tinytronics.nl/shop/nl/kabels-en-connectoren/connectoren/schroefterminals/8-pin-schroef-terminal-block-connector-2.54mm-afstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANTAL C en R NODIG? </t>
   </si>
 </sst>
 </file>
@@ -350,11 +353,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,25 +380,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,30 +707,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060B026B-07F5-49B1-9854-4DE7B6F69949}">
-  <dimension ref="A1:AG66"/>
+  <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
     <col min="28" max="28" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -741,41 +748,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>16.440000000000001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <f>C4*D4</f>
         <v>16.440000000000001</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -788,12 +795,12 @@
       <c r="D5">
         <v>0.3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <f t="shared" ref="E5:E9" si="0">C5*D5</f>
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -806,12 +813,12 @@
       <c r="D6">
         <v>0.45</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -824,12 +831,12 @@
       <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -842,12 +849,12 @@
       <c r="D8">
         <v>0.6</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -860,177 +867,245 @@
       <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="3">
+        <f>6*D12</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2.39</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14*C14</f>
+        <v>11.950000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <f>4*6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="3">
+        <f>5*D17</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="3">
+        <f>12*0.15</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="G20">
+        <f>50*35</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="C21">
         <v>18</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="G21">
+        <f>9/G20</f>
+        <v>5.1428571428571426E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="G24">
+        <f xml:space="preserve"> 6+6+18+1+6+12+12+1+1+3</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="G25">
+        <f>G21*66</f>
+        <v>0.33942857142857141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1038,506 +1113,512 @@
         <f>28+23</f>
         <v>51</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="G29" s="1" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="G29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E42" s="7"/>
-    </row>
-    <row r="46" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E30" s="3">
+        <f>E12+E14+E15+E16+E17+E18+E19</f>
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E31" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f>20+9+24+11.95+1.5+3+1.8 +1</f>
+        <v>72.25</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="P47" s="12" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="8"/>
+      <c r="P46" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="14"/>
-      <c r="AB47" s="12" t="s">
+      <c r="Q46" s="15"/>
+      <c r="AB46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AC47" s="14"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC46" s="15"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <f>C47*4</f>
+        <v>4</v>
+      </c>
+      <c r="P47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="8">
-        <f>C48*4</f>
+      <c r="D48" s="5">
+        <f t="shared" ref="D48:D60" si="1">C48*4</f>
         <v>4</v>
       </c>
       <c r="P48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q48" s="8">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="5">
         <v>1</v>
       </c>
       <c r="AB48" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC48" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9">
-        <f t="shared" ref="D49:D61" si="1">C49*4</f>
-        <v>4</v>
-      </c>
-      <c r="P49" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC49" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D49" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P49" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q49" s="5">
         <v>3</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AB49" t="s">
         <v>24</v>
       </c>
-      <c r="AC50" s="9">
+      <c r="AC49" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>25</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="P51" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>2</v>
       </c>
       <c r="AB51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC51" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="AC51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P52" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q52" s="9">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="5">
         <v>2</v>
       </c>
       <c r="AB52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC52" s="9">
+        <v>27</v>
+      </c>
+      <c r="AC52" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P54" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC54" s="5">
         <v>2</v>
       </c>
-      <c r="D53" s="9">
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P56" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC56" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q53" s="9">
+      <c r="P57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="P58" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="5">
         <v>2</v>
       </c>
-      <c r="AB53" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC53" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="AB58" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P54" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="P59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>23</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AB59" t="s">
         <v>28</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="9">
+      <c r="AC59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P55" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q55" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC55" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="P56" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q56" s="9">
-        <v>2</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC56" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="P57" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q57" s="9">
-        <v>2</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC57" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" s="9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P58" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q58" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59">
-        <v>7</v>
-      </c>
-      <c r="D59" s="9">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="P59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q59" s="9">
-        <v>2</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC59" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="P60" t="s">
         <v>15</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="P60" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>23</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
+      <c r="Q60" s="5">
+        <v>1</v>
+      </c>
       <c r="AB60" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC60" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="7"/>
+      <c r="P61" t="s">
         <v>32</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="Q61" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D62" s="7"/>
+      <c r="AB62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D63" s="7"/>
+      <c r="AB63" t="s">
         <v>15</v>
       </c>
-      <c r="Q61" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC61" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="11"/>
-      <c r="P62" t="s">
+      <c r="AC63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D64" s="7"/>
+      <c r="AB64" t="s">
         <v>32</v>
       </c>
-      <c r="Q62" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC62" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D63" s="11"/>
-      <c r="AB63" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC63" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D64" s="11"/>
-      <c r="AB64" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="4:29" x14ac:dyDescent="0.25">
-      <c r="D65" s="11"/>
+      <c r="AC64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="7"/>
       <c r="AB65" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC65" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="11"/>
-      <c r="AB66" t="s">
         <v>13</v>
       </c>
-      <c r="AC66" s="10">
+      <c r="AC65" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="S60:Z60"/>
-    <mergeCell ref="AE59:AG59"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="G59:N59"/>
+  <mergeCells count="13">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G4:K4"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="AE58:AG58"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="G58:N58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{767C099A-E95B-46B4-A6AF-853A3D594ED6}"/>
